--- a/Data/Discount_Cheker/CV Discount Check Master File 16.01.2026.xlsx
+++ b/Data/Discount_Cheker/CV Discount Check Master File 16.01.2026.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Auditor RSM Data\To be Consider\01 Jan-2026\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94BFB0A7-1115-4529-A46D-1B70145AB70F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF22CCD-B8E6-4BF8-BC13-011B71D3A771}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{9C2300AC-C402-454B-B7CF-00A24C218261}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="MasterData" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$2:$T$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$A$2:$T$40</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="132">
   <si>
     <t>Data Validation Prep.</t>
   </si>
@@ -454,6 +454,12 @@
   </si>
   <si>
     <t>=VLOOKUP(A3,'[CV Price List D. 16.01.2026.xlsx]Price List'!$B$1:$L$37,{2,3,4,5,6,7,8},FALSE)</t>
+  </si>
+  <si>
+    <t>BOL PIK UP FB 1.3T - BS6.2 - PS - Refresh</t>
+  </si>
+  <si>
+    <t>BOL PIK UP FB 1.3T - BS6.2 - PS AC - Refresh</t>
   </si>
 </sst>
 </file>
@@ -1415,13 +1421,6 @@
     <xf numFmtId="43" fontId="3" fillId="20" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="20" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="19" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="43" fontId="3" fillId="22" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
@@ -1491,6 +1490,14 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="18" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="20" borderId="13" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="19" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1968,7 +1975,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="11" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -2001,15 +2008,15 @@
     </row>
     <row r="5" spans="1:15" ht="18.75">
       <c r="A5" s="9"/>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="74" t="s">
         <v>58</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>59</v>
       </c>
       <c r="D5" s="17">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C5,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>784001</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C5,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>962801</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="32" t="s">
@@ -2029,12 +2036,12 @@
     </row>
     <row r="6" spans="1:15" ht="18.75">
       <c r="A6" s="9"/>
-      <c r="B6" s="77"/>
+      <c r="B6" s="75"/>
       <c r="C6" s="16" t="s">
         <v>55</v>
       </c>
       <c r="D6" s="18">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C6,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C6,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>0</v>
       </c>
       <c r="E6" s="9"/>
@@ -2055,13 +2062,13 @@
     </row>
     <row r="7" spans="1:15" ht="18.75">
       <c r="A7" s="9"/>
-      <c r="B7" s="77"/>
+      <c r="B7" s="75"/>
       <c r="C7" s="16" t="s">
         <v>99</v>
       </c>
       <c r="D7" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C7,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>46378</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C7,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>50961</v>
       </c>
       <c r="E7" s="9"/>
       <c r="F7" s="30">
@@ -2081,13 +2088,13 @@
     </row>
     <row r="8" spans="1:15" ht="18.75">
       <c r="A8" s="9"/>
-      <c r="B8" s="77"/>
+      <c r="B8" s="75"/>
       <c r="C8" s="16" t="s">
         <v>100</v>
       </c>
       <c r="D8" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C8,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>42164</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C8,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>51256</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="30">
@@ -2107,12 +2114,12 @@
     </row>
     <row r="9" spans="1:15" ht="18.75">
       <c r="A9" s="9"/>
-      <c r="B9" s="77"/>
+      <c r="B9" s="75"/>
       <c r="C9" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C9,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C9,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>1519</v>
       </c>
       <c r="E9" s="9"/>
@@ -2133,13 +2140,13 @@
     </row>
     <row r="10" spans="1:15" ht="18.75">
       <c r="A10" s="9"/>
-      <c r="B10" s="77"/>
+      <c r="B10" s="75"/>
       <c r="C10" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D10" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C10,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>19600</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C10,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>24070</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="30">
@@ -2159,12 +2166,12 @@
     </row>
     <row r="11" spans="1:15" ht="18.75">
       <c r="A11" s="9"/>
-      <c r="B11" s="77"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="16" t="s">
         <v>56</v>
       </c>
       <c r="D11" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C11,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C11,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>3500</v>
       </c>
       <c r="E11" s="9"/>
@@ -2185,13 +2192,13 @@
     </row>
     <row r="12" spans="1:15" ht="18.75">
       <c r="A12" s="9"/>
-      <c r="B12" s="77"/>
+      <c r="B12" s="75"/>
       <c r="C12" s="16" t="s">
         <v>57</v>
       </c>
       <c r="D12" s="19">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C12,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>17000</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C12,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>12000</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="30">
@@ -2211,13 +2218,13 @@
     </row>
     <row r="13" spans="1:15" ht="18.75" customHeight="1">
       <c r="A13" s="9"/>
-      <c r="B13" s="77"/>
+      <c r="B13" s="75"/>
       <c r="C13" s="13" t="s">
         <v>103</v>
       </c>
       <c r="D13" s="20">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C13,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>914162</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C13,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>1106107</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="30">
@@ -2237,13 +2244,13 @@
     </row>
     <row r="14" spans="1:15" ht="19.5" thickBot="1">
       <c r="A14" s="9"/>
-      <c r="B14" s="77"/>
+      <c r="B14" s="75"/>
       <c r="C14" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D14" s="21">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C14,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>894562</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C14,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>1082037</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="30">
@@ -2263,15 +2270,15 @@
     </row>
     <row r="15" spans="1:15" ht="18.75">
       <c r="A15" s="9"/>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="67" t="s">
         <v>98</v>
       </c>
       <c r="D15" s="62">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C15,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>30000</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C15,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>15000</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="30">
@@ -2291,13 +2298,13 @@
     </row>
     <row r="16" spans="1:15" ht="19.5" thickBot="1">
       <c r="A16" s="9"/>
-      <c r="B16" s="79"/>
-      <c r="C16" s="70" t="s">
+      <c r="B16" s="77"/>
+      <c r="C16" s="68" t="s">
         <v>87</v>
       </c>
-      <c r="D16" s="63" t="str">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C16,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>30K + RSA FREE</v>
+      <c r="D16" s="91" t="str">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C16,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>15K + RSA FREE</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="30">
@@ -2317,15 +2324,15 @@
     </row>
     <row r="17" spans="1:15" ht="18.75" customHeight="1">
       <c r="A17" s="9"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="78" t="s">
         <v>60</v>
       </c>
       <c r="C17" s="61" t="s">
         <v>105</v>
       </c>
       <c r="D17" s="60">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C17,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>38000</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C17,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>23000</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
@@ -2341,13 +2348,13 @@
     </row>
     <row r="18" spans="1:15" ht="18.75">
       <c r="A18" s="9"/>
-      <c r="B18" s="80"/>
+      <c r="B18" s="78"/>
       <c r="C18" s="57" t="s">
         <v>106</v>
       </c>
       <c r="D18" s="58">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C18,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>10000</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C18,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>5000</v>
       </c>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
@@ -2363,13 +2370,13 @@
     </row>
     <row r="19" spans="1:15" ht="18.75">
       <c r="A19" s="9"/>
-      <c r="B19" s="80"/>
+      <c r="B19" s="78"/>
       <c r="C19" s="59" t="s">
         <v>107</v>
       </c>
       <c r="D19" s="58">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C19,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>48000</v>
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C19,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>28000</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
@@ -2385,13 +2392,13 @@
     </row>
     <row r="20" spans="1:15" ht="19.5" thickBot="1">
       <c r="A20" s="9"/>
-      <c r="B20" s="80"/>
+      <c r="B20" s="78"/>
       <c r="C20" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="64" t="str">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C20,Sheet1!$B$2:$Y$2,0),0),"")</f>
-        <v>38K + 17K Accessories + RSA FREE</v>
+      <c r="D20" s="92" t="str">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C20,Sheet1!$B$2:$Y$2,0),0),"")</f>
+        <v>23K + 12K Accessories + RSA FREE</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
@@ -2407,14 +2414,14 @@
     </row>
     <row r="21" spans="1:15" ht="18.75">
       <c r="A21" s="9"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="67" t="s">
+      <c r="C21" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="D21" s="65">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C21,Sheet1!$B$2:$Y$2,0),0),"")</f>
+      <c r="D21" s="63">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C21,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>35000</v>
       </c>
       <c r="E21" s="9"/>
@@ -2431,12 +2438,12 @@
     </row>
     <row r="22" spans="1:15" ht="19.5" thickBot="1">
       <c r="A22" s="9"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="68" t="s">
+      <c r="B22" s="80"/>
+      <c r="C22" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="D22" s="66">
-        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$45,MATCH(Report!$C22,Sheet1!$B$2:$Y$2,0),0),"")</f>
+      <c r="D22" s="64">
+        <f>IFERROR(VLOOKUP($D$3,Sheet1!$B$2:$Y$49,MATCH(Report!$C22,Sheet1!$B$2:$Y$2,0),0),"")</f>
         <v>45000</v>
       </c>
       <c r="E22" s="9"/>
@@ -2675,7 +2682,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B23E6FD-7762-4C22-90E4-A9620B029028}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -2700,36 +2707,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="83" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84"/>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="88" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="86" t="s">
         <v>85</v>
       </c>
-      <c r="N1" s="89"/>
-      <c r="O1" s="86" t="s">
+      <c r="N1" s="87"/>
+      <c r="O1" s="84" t="s">
         <v>86</v>
       </c>
-      <c r="P1" s="90"/>
-      <c r="Q1" s="90"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="91" t="s">
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="89" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="92"/>
+      <c r="T1" s="90"/>
     </row>
     <row r="2" spans="1:20" ht="75.75" thickBot="1">
       <c r="A2" s="26" t="s">
@@ -2889,11 +2896,11 @@
         <v>17000</v>
       </c>
       <c r="K4" s="8">
-        <f t="shared" ref="K4:K36" si="0">SUM(C4:J4)</f>
+        <f t="shared" ref="K4:K40" si="0">SUM(C4:J4)</f>
         <v>905287</v>
       </c>
       <c r="L4" s="29">
-        <f t="shared" ref="L4:L36" si="1">K4-H4</f>
+        <f t="shared" ref="L4:L40" si="1">K4-H4</f>
         <v>885912</v>
       </c>
       <c r="M4" s="53">
@@ -4523,454 +4530,710 @@
     </row>
     <row r="30" spans="1:20">
       <c r="A30" s="24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B30" s="25" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
-        <v>885500</v>
+        <v>962801</v>
       </c>
       <c r="D30" s="8">
         <v>0</v>
       </c>
       <c r="E30" s="8">
-        <v>50040</v>
+        <v>50961</v>
       </c>
       <c r="F30" s="8">
-        <v>47325</v>
+        <v>51256</v>
       </c>
       <c r="G30" s="8">
         <v>1519</v>
       </c>
       <c r="H30" s="8">
-        <v>22138</v>
+        <v>24070</v>
       </c>
       <c r="I30" s="8">
         <v>3500</v>
       </c>
       <c r="J30" s="8">
+        <v>12000</v>
+      </c>
+      <c r="K30" s="8">
+        <f t="shared" ref="K30:K33" si="2">SUM(C30:J30)</f>
+        <v>1106107</v>
+      </c>
+      <c r="L30" s="29">
+        <f t="shared" ref="L30:L33" si="3">K30-H30</f>
+        <v>1082037</v>
+      </c>
+      <c r="M30" s="53">
         <v>15000</v>
       </c>
-      <c r="K30" s="8">
+      <c r="N30" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="O30" s="44">
+        <v>23000</v>
+      </c>
+      <c r="P30" s="35">
+        <v>5000</v>
+      </c>
+      <c r="Q30" s="35">
+        <v>28000</v>
+      </c>
+      <c r="R30" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="S30" s="51">
+        <v>35000</v>
+      </c>
+      <c r="T30" s="51">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="7">
+        <v>985702</v>
+      </c>
+      <c r="D31" s="8">
+        <v>0</v>
+      </c>
+      <c r="E31" s="8">
+        <v>51675</v>
+      </c>
+      <c r="F31" s="8">
+        <v>52420</v>
+      </c>
+      <c r="G31" s="8">
+        <v>1519</v>
+      </c>
+      <c r="H31" s="8">
+        <v>24643</v>
+      </c>
+      <c r="I31" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J31" s="8">
+        <v>12000</v>
+      </c>
+      <c r="K31" s="8">
+        <f t="shared" si="2"/>
+        <v>1131459</v>
+      </c>
+      <c r="L31" s="29">
+        <f t="shared" si="3"/>
+        <v>1106816</v>
+      </c>
+      <c r="M31" s="53">
+        <v>15000</v>
+      </c>
+      <c r="N31" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="O31" s="44">
+        <v>23000</v>
+      </c>
+      <c r="P31" s="35">
+        <v>5000</v>
+      </c>
+      <c r="Q31" s="35">
+        <v>28000</v>
+      </c>
+      <c r="R31" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="S31" s="51">
+        <v>35000</v>
+      </c>
+      <c r="T31" s="51">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="7">
+        <v>975001</v>
+      </c>
+      <c r="D32" s="8">
+        <v>0</v>
+      </c>
+      <c r="E32" s="8">
+        <v>52620</v>
+      </c>
+      <c r="F32" s="8">
+        <v>51876</v>
+      </c>
+      <c r="G32" s="8">
+        <v>1519</v>
+      </c>
+      <c r="H32" s="8">
+        <v>24375</v>
+      </c>
+      <c r="I32" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J32" s="8">
+        <v>12000</v>
+      </c>
+      <c r="K32" s="8">
+        <f t="shared" si="2"/>
+        <v>1120891</v>
+      </c>
+      <c r="L32" s="29">
+        <f t="shared" si="3"/>
+        <v>1096516</v>
+      </c>
+      <c r="M32" s="53">
+        <v>15000</v>
+      </c>
+      <c r="N32" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="O32" s="44">
+        <v>23000</v>
+      </c>
+      <c r="P32" s="35">
+        <v>5000</v>
+      </c>
+      <c r="Q32" s="35">
+        <v>28000</v>
+      </c>
+      <c r="R32" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="S32" s="51">
+        <v>35000</v>
+      </c>
+      <c r="T32" s="51">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33" s="7">
+        <v>999001</v>
+      </c>
+      <c r="D33" s="8">
+        <v>0</v>
+      </c>
+      <c r="E33" s="8">
+        <v>53405</v>
+      </c>
+      <c r="F33" s="8">
+        <v>53097</v>
+      </c>
+      <c r="G33" s="8">
+        <v>1519</v>
+      </c>
+      <c r="H33" s="8">
+        <v>24975</v>
+      </c>
+      <c r="I33" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J33" s="8">
+        <v>12000</v>
+      </c>
+      <c r="K33" s="8">
+        <f t="shared" si="2"/>
+        <v>1147497</v>
+      </c>
+      <c r="L33" s="29">
+        <f t="shared" si="3"/>
+        <v>1122522</v>
+      </c>
+      <c r="M33" s="53">
+        <v>15000</v>
+      </c>
+      <c r="N33" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="O33" s="44">
+        <v>23000</v>
+      </c>
+      <c r="P33" s="35">
+        <v>5000</v>
+      </c>
+      <c r="Q33" s="35">
+        <v>28000</v>
+      </c>
+      <c r="R33" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="S33" s="51">
+        <v>35000</v>
+      </c>
+      <c r="T33" s="51">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="7">
+        <v>885500</v>
+      </c>
+      <c r="D34" s="8">
+        <v>0</v>
+      </c>
+      <c r="E34" s="8">
+        <v>50040</v>
+      </c>
+      <c r="F34" s="8">
+        <v>47325</v>
+      </c>
+      <c r="G34" s="8">
+        <v>1519</v>
+      </c>
+      <c r="H34" s="8">
+        <v>22138</v>
+      </c>
+      <c r="I34" s="8">
+        <v>3500</v>
+      </c>
+      <c r="J34" s="8">
+        <v>15000</v>
+      </c>
+      <c r="K34" s="8">
         <f t="shared" si="0"/>
         <v>1025022</v>
       </c>
-      <c r="L30" s="29">
+      <c r="L34" s="29">
         <f t="shared" si="1"/>
         <v>1002884</v>
       </c>
-      <c r="M30" s="53">
+      <c r="M34" s="53">
         <v>5000</v>
       </c>
-      <c r="N30" s="54" t="s">
+      <c r="N34" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="O30" s="44">
+      <c r="O34" s="44">
         <v>20000</v>
       </c>
-      <c r="P30" s="35">
+      <c r="P34" s="35">
         <v>5000</v>
       </c>
-      <c r="Q30" s="35">
+      <c r="Q34" s="35">
         <v>25000</v>
       </c>
-      <c r="R30" s="45" t="s">
+      <c r="R34" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="S30" s="51">
+      <c r="S34" s="51">
         <v>35000</v>
       </c>
-      <c r="T30" s="51">
+      <c r="T34" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="A31" s="24" t="s">
+    <row r="35" spans="1:20">
+      <c r="A35" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B31" s="25" t="s">
+      <c r="B35" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C35" s="7">
         <v>970000</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D35" s="8">
         <v>0</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E35" s="8">
         <v>52457</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F35" s="8">
         <v>51622</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G35" s="8">
         <v>1519</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H35" s="8">
         <v>24250</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I35" s="8">
         <v>3500</v>
       </c>
-      <c r="J31" s="8">
+      <c r="J35" s="8">
         <v>15000</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K35" s="8">
         <f t="shared" si="0"/>
         <v>1118348</v>
       </c>
-      <c r="L31" s="29">
+      <c r="L35" s="29">
         <f t="shared" si="1"/>
         <v>1094098</v>
       </c>
-      <c r="M31" s="53">
+      <c r="M35" s="53">
         <v>5000</v>
       </c>
-      <c r="N31" s="54" t="s">
+      <c r="N35" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="O31" s="44">
+      <c r="O35" s="44">
         <v>20000</v>
       </c>
-      <c r="P31" s="35">
+      <c r="P35" s="35">
         <v>5000</v>
       </c>
-      <c r="Q31" s="35">
+      <c r="Q35" s="35">
         <v>25000</v>
       </c>
-      <c r="R31" s="45" t="s">
+      <c r="R35" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="S31" s="51">
+      <c r="S35" s="51">
         <v>35000</v>
       </c>
-      <c r="T31" s="51">
+      <c r="T35" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
-      <c r="A32" s="24" t="s">
+    <row r="36" spans="1:20">
+      <c r="A36" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B32" s="25" t="s">
+      <c r="B36" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C32" s="7">
+      <c r="C36" s="7">
         <v>997700</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D36" s="8">
         <v>0</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E36" s="8">
         <v>53500</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F36" s="8">
         <v>53031</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G36" s="8">
         <v>1519</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H36" s="8">
         <v>24943</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I36" s="8">
         <v>3500</v>
       </c>
-      <c r="J32" s="8">
+      <c r="J36" s="8">
         <v>15000</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K36" s="8">
         <f t="shared" si="0"/>
         <v>1149193</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L36" s="29">
         <f t="shared" si="1"/>
         <v>1124250</v>
       </c>
-      <c r="M32" s="53">
+      <c r="M36" s="53">
         <v>5000</v>
       </c>
-      <c r="N32" s="54" t="s">
+      <c r="N36" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="O32" s="44">
+      <c r="O36" s="44">
         <v>20000</v>
       </c>
-      <c r="P32" s="35">
+      <c r="P36" s="35">
         <v>5000</v>
       </c>
-      <c r="Q32" s="35">
+      <c r="Q36" s="35">
         <v>25000</v>
       </c>
-      <c r="R32" s="45" t="s">
+      <c r="R36" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S36" s="51">
         <v>35000</v>
       </c>
-      <c r="T32" s="51">
+      <c r="T36" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
-      <c r="A33" s="24" t="s">
+    <row r="37" spans="1:20">
+      <c r="A37" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B37" s="25" t="s">
         <v>92</v>
       </c>
-      <c r="C33" s="7">
+      <c r="C37" s="7">
         <v>922200</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D37" s="8">
         <v>0</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E37" s="8">
         <v>50896</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F37" s="8">
         <v>49192</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G37" s="8">
         <v>1519</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H37" s="8">
         <v>23055</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I37" s="8">
         <v>3500</v>
       </c>
-      <c r="J33" s="8">
+      <c r="J37" s="8">
         <v>15000</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K37" s="8">
         <f t="shared" si="0"/>
         <v>1065362</v>
       </c>
-      <c r="L33" s="29">
+      <c r="L37" s="29">
         <f t="shared" si="1"/>
         <v>1042307</v>
       </c>
-      <c r="M33" s="53">
+      <c r="M37" s="53">
         <v>5000</v>
       </c>
-      <c r="N33" s="54" t="s">
+      <c r="N37" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="O33" s="44">
+      <c r="O37" s="44">
         <v>15000</v>
       </c>
-      <c r="P33" s="35">
+      <c r="P37" s="35">
         <v>5000</v>
       </c>
-      <c r="Q33" s="35">
+      <c r="Q37" s="35">
         <v>20000</v>
       </c>
-      <c r="R33" s="45" t="s">
+      <c r="R37" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="S33" s="51">
+      <c r="S37" s="51">
         <v>35000</v>
       </c>
-      <c r="T33" s="51">
+      <c r="T37" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
-      <c r="A34" s="24" t="s">
+    <row r="38" spans="1:20">
+      <c r="A38" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="25" t="s">
+      <c r="B38" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C38" s="7">
         <v>999900</v>
       </c>
-      <c r="D34" s="8">
+      <c r="D38" s="8">
         <v>0</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E38" s="8">
         <v>54505</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F38" s="8">
         <v>53142</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G38" s="8">
         <v>1519</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H38" s="8">
         <v>24998</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I38" s="8">
         <v>3500</v>
       </c>
-      <c r="J34" s="8">
+      <c r="J38" s="8">
         <v>15000</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K38" s="8">
         <f t="shared" si="0"/>
         <v>1152564</v>
       </c>
-      <c r="L34" s="29">
+      <c r="L38" s="29">
         <f t="shared" si="1"/>
         <v>1127566</v>
       </c>
-      <c r="M34" s="53">
+      <c r="M38" s="53">
         <v>5000</v>
       </c>
-      <c r="N34" s="54" t="s">
+      <c r="N38" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="O34" s="44">
+      <c r="O38" s="44">
         <v>15000</v>
       </c>
-      <c r="P34" s="35">
+      <c r="P38" s="35">
         <v>5000</v>
       </c>
-      <c r="Q34" s="35">
+      <c r="Q38" s="35">
         <v>20000</v>
       </c>
-      <c r="R34" s="45" t="s">
+      <c r="R38" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="S34" s="51">
+      <c r="S38" s="51">
         <v>35000</v>
       </c>
-      <c r="T34" s="51">
+      <c r="T38" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
-      <c r="A35" s="24" t="s">
+    <row r="39" spans="1:20">
+      <c r="A39" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B39" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C35" s="7">
+      <c r="C39" s="7">
         <v>962801</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D39" s="8">
         <v>0</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E39" s="8">
         <v>50961</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F39" s="8">
         <v>51256</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G39" s="8">
         <v>1519</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H39" s="8">
         <v>24070</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I39" s="8">
         <v>3500</v>
       </c>
-      <c r="J35" s="8">
+      <c r="J39" s="8">
         <v>12000</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K39" s="8">
         <f t="shared" si="0"/>
         <v>1106107</v>
       </c>
-      <c r="L35" s="29">
+      <c r="L39" s="29">
         <f t="shared" si="1"/>
         <v>1082037</v>
       </c>
-      <c r="M35" s="53">
+      <c r="M39" s="53">
         <v>15000</v>
       </c>
-      <c r="N35" s="54" t="s">
+      <c r="N39" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="O35" s="44">
+      <c r="O39" s="44">
         <v>23000</v>
       </c>
-      <c r="P35" s="35">
+      <c r="P39" s="35">
         <v>5000</v>
       </c>
-      <c r="Q35" s="35">
+      <c r="Q39" s="35">
         <v>28000</v>
       </c>
-      <c r="R35" s="45" t="s">
+      <c r="R39" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="S35" s="51">
+      <c r="S39" s="51">
         <v>35000</v>
       </c>
-      <c r="T35" s="51">
+      <c r="T39" s="51">
         <v>45000</v>
       </c>
     </row>
-    <row r="36" spans="1:20" ht="15.75" thickBot="1">
-      <c r="A36" s="71" t="s">
+    <row r="40" spans="1:20" ht="15.75" thickBot="1">
+      <c r="A40" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="72" t="s">
+      <c r="B40" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="C36" s="73">
+      <c r="C40" s="71">
         <v>985702</v>
       </c>
-      <c r="D36" s="74">
+      <c r="D40" s="72">
         <v>0</v>
       </c>
-      <c r="E36" s="74">
+      <c r="E40" s="72">
         <v>51675</v>
       </c>
-      <c r="F36" s="74">
+      <c r="F40" s="72">
         <v>52420</v>
       </c>
-      <c r="G36" s="74">
+      <c r="G40" s="72">
         <v>1519</v>
       </c>
-      <c r="H36" s="74">
+      <c r="H40" s="72">
         <v>24643</v>
       </c>
-      <c r="I36" s="74">
+      <c r="I40" s="72">
         <v>3500</v>
       </c>
-      <c r="J36" s="74">
+      <c r="J40" s="72">
         <v>12000</v>
       </c>
-      <c r="K36" s="74">
+      <c r="K40" s="72">
         <f t="shared" si="0"/>
         <v>1131459</v>
       </c>
-      <c r="L36" s="75">
+      <c r="L40" s="73">
         <f t="shared" si="1"/>
         <v>1106816</v>
       </c>
-      <c r="M36" s="55">
+      <c r="M40" s="55">
         <v>15000</v>
       </c>
-      <c r="N36" s="56" t="s">
+      <c r="N40" s="56" t="s">
         <v>122</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O40" s="46">
         <v>23000</v>
       </c>
-      <c r="P36" s="47">
+      <c r="P40" s="47">
         <v>5000</v>
       </c>
-      <c r="Q36" s="47">
+      <c r="Q40" s="47">
         <v>28000</v>
       </c>
-      <c r="R36" s="48" t="s">
+      <c r="R40" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="S36" s="52">
+      <c r="S40" s="52">
         <v>35000</v>
       </c>
-      <c r="T36" s="52">
+      <c r="T40" s="52">
         <v>45000</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T36" xr:uid="{8B23E6FD-7762-4C22-90E4-A9620B029028}"/>
+  <autoFilter ref="A2:T40" xr:uid="{8B23E6FD-7762-4C22-90E4-A9620B029028}"/>
   <mergeCells count="5">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="A1:B1"/>
@@ -4985,7 +5248,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B69CD76A-B490-420B-BAEB-D8ED77990FC7}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4997,7 +5260,7 @@
     <col min="5" max="5" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>54</v>
       </c>
@@ -5008,81 +5271,96 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C2" t="str" cm="1">
-        <f t="array" ref="C2">TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Vehicle_Model[Variant],ISNUMBER(SEARCH(Report!D3,Vehicle_Model[Variant])),"Not Found")))</f>
-        <v>MAXX CITY 1.3 LX BS6.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <f t="array" ref="C2:H2">TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Vehicle_Model[Variant],ISNUMBER(SEARCH(Report!D3,Vehicle_Model[Variant])),"Not Found")))</f>
+        <v>BOL PIK UP FB 1.3T - BS6.2 - PS</v>
+      </c>
+      <c r="D2" t="str">
+        <v>BOL PIK UP FB 1.3T - BS6.2 - PS</v>
+      </c>
+      <c r="E2" t="str">
+        <v>BOL PIK UP FB 1.3T - BS6.2 - PS - Refresh</v>
+      </c>
+      <c r="F2" t="str">
+        <v>BOL PIK UP FB 1.3T - BS6.2 - PS AC</v>
+      </c>
+      <c r="G2" t="str">
+        <v>BOL PIK UP FB 1.3T - BS6.2 - PS AC</v>
+      </c>
+      <c r="H2" t="str">
+        <v>BOL PIK UP FB 1.3T - BS6.2 - PS AC - Refresh</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>44</v>
       </c>
@@ -5149,50 +5427,58 @@
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="2" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="2" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="2" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="2" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2"/>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="2"/>
@@ -5218,18 +5504,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5456,18 +5742,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9062C800-B5CF-4467-9EC7-2088426858BB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{250AA7BD-7B6E-43C6-AED0-1E579093AA92}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
